--- a/doc/标准库国家计算结果（默认版本）/机构数据498757058369/出生队列接种率/截止 2025-01-31 出生队列接种率.xlsx
+++ b/doc/标准库国家计算结果（默认版本）/机构数据498757058369/出生队列接种率/截止 2025-01-31 出生队列接种率.xlsx
@@ -679,7 +679,7 @@
     <row r="2" customHeight="true" ht="35.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-01  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-03  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
+          <t>查询条件   地区:   全 国   |    出生截止时间:   2025-01  月末   |    出生队列数来源:   系统报告   |    出生队列:   1岁  2岁  3岁  4岁  5岁  6岁  7岁  8岁  9岁  10岁  11岁  12岁  13岁  14岁  15岁  16岁  17岁  18岁   |    数据类型:   交换数据   |    上传截止日期:   2025-11-04  （有效数据为交换上传时间早于所选日期当日 23 时 59 分 59 秒;）   |</t>
         </is>
       </c>
       <c r="B2" s="4"/>
@@ -723,7 +723,7 @@
     <row r="3" customHeight="true" ht="35.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>导出时间: 2025-11-04 15:20:33</t>
+          <t>导出时间: 2025-11-05 14:35:29</t>
         </is>
       </c>
       <c r="B3" s="4"/>
@@ -1190,109 +1190,109 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>749</t>
         </is>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>803</t>
         </is>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="9" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>857</t>
         </is>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="9" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>804</t>
         </is>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="9" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>730</t>
         </is>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="9" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>608</t>
         </is>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="9" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>613</t>
         </is>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>406</t>
         </is>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="9" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>274</t>
         </is>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="9" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>139</t>
         </is>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="9" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>151</t>
         </is>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="9" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>194</t>
         </is>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>231</t>
         </is>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="9" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AL7" s="5"/>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="AD32" s="9" t="inlineStr">
         <is>
-          <t>114.46%</t>
+          <t>82.25%</t>
         </is>
       </c>
       <c r="AE32" s="9" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="AF32" s="9" t="inlineStr">
         <is>
-          <t>86.25%</t>
+          <t>69.00%</t>
         </is>
       </c>
       <c r="AG32" s="9" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="AH32" s="9" t="inlineStr">
         <is>
-          <t>46.43%</t>
+          <t>40.62%</t>
         </is>
       </c>
       <c r="AI32" s="9" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AJ32" s="9" t="inlineStr">
         <is>
-          <t>40.91%</t>
+          <t>34.62%</t>
         </is>
       </c>
       <c r="AK32" s="9" t="inlineStr">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="AL32" s="9" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>23.33%</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="AD33" s="9" t="inlineStr">
         <is>
-          <t>36.75%</t>
+          <t>26.41%</t>
         </is>
       </c>
       <c r="AE33" s="9" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="AF33" s="9" t="inlineStr">
         <is>
-          <t>66.25%</t>
+          <t>53.00%</t>
         </is>
       </c>
       <c r="AG33" s="9" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="AH33" s="9" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>31.25%</t>
         </is>
       </c>
       <c r="AI33" s="9" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="AJ33" s="9" t="inlineStr">
         <is>
-          <t>37.88%</t>
+          <t>32.05%</t>
         </is>
       </c>
       <c r="AK33" s="9" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="AL33" s="9" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>23.33%</t>
         </is>
       </c>
     </row>
